--- a/Advanced_Javascript.xlsx
+++ b/Advanced_Javascript.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7390" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="7390"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -308,9 +308,6 @@
     <t>https://app.pluralsight.com/player?course=advanced-javascript&amp;author=kyle-simpson&amp;name=advanced-javascript-m2&amp;clip=14&amp;mode=live</t>
   </si>
   <si>
-    <t>AJS-B15 - Try this Exerecise</t>
-  </si>
-  <si>
     <t>Exercise 1: Solution</t>
   </si>
   <si>
@@ -419,9 +416,6 @@
     <t>https://app.pluralsight.com/player?course=advanced-javascript&amp;author=kyle-simpson&amp;name=advanced-javascript-m3&amp;clip=6&amp;mode=live</t>
   </si>
   <si>
-    <t>AJS-C7 - Try this Exerecise</t>
-  </si>
-  <si>
     <t>D. Object Oriented</t>
   </si>
   <si>
@@ -518,9 +512,6 @@
     <t>https://app.pluralsight.com/player?course=advanced-javascript&amp;author=kyle-simpson&amp;name=advanced-javascript-m4&amp;clip=7&amp;mode=live</t>
   </si>
   <si>
-    <t>AJS-D8 - Try this Exerecise</t>
-  </si>
-  <si>
     <t>Exercise 3: Solution</t>
   </si>
   <si>
@@ -638,9 +629,6 @@
     <t>https://app.pluralsight.com/player?course=advanced-javascript&amp;author=kyle-simpson&amp;name=advanced-javascript-m5&amp;clip=7&amp;mode=live</t>
   </si>
   <si>
-    <t>AJS-E7 - Try this Exerecise</t>
-  </si>
-  <si>
     <t>AJS-A1 to AJS-A5</t>
   </si>
   <si>
@@ -669,6 +657,18 @@
   </si>
   <si>
     <t>Assignment 5</t>
+  </si>
+  <si>
+    <t>Develop a TicTacToe</t>
+  </si>
+  <si>
+    <t>Develop Popup window</t>
+  </si>
+  <si>
+    <t>Develop a Autosuggestion box</t>
+  </si>
+  <si>
+    <t>Develop a Slide Show Slider</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D62" sqref="D62:D69"/>
     </sheetView>
   </sheetViews>
@@ -1611,10 +1611,10 @@
         <v>74</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="D28" s="15">
         <v>5.4976851851851853E-3</v>
@@ -1625,10 +1625,10 @@
         <v>75</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="D29" s="15">
         <v>8.3796296296296292E-3</v>
@@ -1639,10 +1639,10 @@
         <v>76</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="D30" s="15">
         <v>4.5717592592592589E-3</v>
@@ -1653,10 +1653,10 @@
         <v>77</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="D31" s="15">
         <v>8.7962962962962968E-3</v>
@@ -1664,13 +1664,13 @@
     </row>
     <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="D32" s="15">
         <v>5.6828703703703702E-3</v>
@@ -1678,13 +1678,13 @@
     </row>
     <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="D33" s="15">
         <v>2.4421296296296296E-3</v>
@@ -1692,19 +1692,19 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35" s="19"/>
     </row>
     <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="D36" s="15">
         <v>4.7106481481481478E-3</v>
@@ -1712,13 +1712,13 @@
     </row>
     <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="D37" s="15">
         <v>5.5208333333333333E-3</v>
@@ -1726,13 +1726,13 @@
     </row>
     <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="D38" s="15">
         <v>3.7152777777777774E-3</v>
@@ -1740,13 +1740,13 @@
     </row>
     <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="D39" s="15">
         <v>7.2916666666666659E-3</v>
@@ -1754,13 +1754,13 @@
     </row>
     <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="D40" s="15">
         <v>2.7777777777777779E-3</v>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="D41" s="15">
         <v>1.3773148148148147E-3</v>
@@ -1782,13 +1782,13 @@
     </row>
     <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="D42" s="15">
         <v>7.0023148148148154E-3</v>
@@ -1796,19 +1796,19 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B44" s="19"/>
     </row>
     <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="D45" s="15">
         <v>3.530092592592592E-3</v>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D46" s="15">
         <v>7.3379629629629628E-3</v>
@@ -1830,13 +1830,13 @@
     </row>
     <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D47" s="15">
         <v>4.8379629629629632E-3</v>
@@ -1844,13 +1844,13 @@
     </row>
     <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D48" s="15">
         <v>5.9259259259259256E-3</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D49" s="15">
         <v>4.3518518518518515E-3</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D50" s="15">
         <v>3.1018518518518522E-3</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="51" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D51" s="15">
         <v>2.1064814814814813E-3</v>
@@ -1900,13 +1900,13 @@
     </row>
     <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D52" s="15">
         <v>1.9560185185185184E-3</v>
@@ -1914,13 +1914,13 @@
     </row>
     <row r="53" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D53" s="15">
         <v>4.6874999999999998E-3</v>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="54" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D54" s="15">
         <v>3.5416666666666665E-3</v>
@@ -1942,13 +1942,13 @@
     </row>
     <row r="55" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D55" s="15">
         <v>4.386574074074074E-3</v>
@@ -1956,13 +1956,13 @@
     </row>
     <row r="56" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D56" s="15">
         <v>6.3310185185185197E-3</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="57" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D57" s="15">
         <v>5.0115740740740737E-3</v>
@@ -1984,13 +1984,13 @@
     </row>
     <row r="58" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="15">
         <v>1.5277777777777779E-3</v>
@@ -1998,13 +1998,13 @@
     </row>
     <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D59" s="15">
         <v>1.5486111111111112E-2</v>
@@ -2012,19 +2012,19 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D62" s="15">
         <v>5.7291666666666671E-3</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D63" s="15">
         <v>2.1064814814814813E-3</v>
@@ -2046,13 +2046,13 @@
     </row>
     <row r="64" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D64" s="15">
         <v>5.2430555555555555E-3</v>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="65" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D65" s="15">
         <v>5.4629629629629637E-3</v>
@@ -2074,13 +2074,13 @@
     </row>
     <row r="66" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D66" s="15">
         <v>4.0277777777777777E-3</v>
@@ -2088,13 +2088,13 @@
     </row>
     <row r="67" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D67" s="15">
         <v>1.712962962962963E-3</v>
@@ -2102,13 +2102,13 @@
     </row>
     <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D68" s="15">
         <v>1.7476851851851852E-3</v>
@@ -2116,13 +2116,13 @@
     </row>
     <row r="69" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D69" s="15">
         <v>1.3715277777777778E-2</v>
@@ -2130,14 +2130,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
@@ -2238,7 +2238,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>17</v>
@@ -2247,10 +2247,10 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="27"/>
       <c r="B3" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D3" s="27"/>
     </row>
@@ -2259,10 +2259,10 @@
         <v>19</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>21</v>
@@ -2273,13 +2273,13 @@
         <v>22</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -2287,13 +2287,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2309,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2338,7 +2338,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2349,7 +2349,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -2360,7 +2360,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
